--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Cx3cl1-Itgav.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Cx3cl1-Itgav.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Itgav</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.52935746452509</v>
+        <v>5.460847999999999</v>
       </c>
       <c r="H2">
-        <v>4.52935746452509</v>
+        <v>16.382544</v>
       </c>
       <c r="I2">
-        <v>0.4102253820267637</v>
+        <v>0.4472616033121704</v>
       </c>
       <c r="J2">
-        <v>0.4102253820267637</v>
+        <v>0.4472616033121705</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N2">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O2">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P2">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q2">
-        <v>21.13852278923132</v>
+        <v>54.61476179548266</v>
       </c>
       <c r="R2">
-        <v>21.13852278923132</v>
+        <v>491.532856159344</v>
       </c>
       <c r="S2">
-        <v>0.007178065508073241</v>
+        <v>0.01588393339706119</v>
       </c>
       <c r="T2">
-        <v>0.007178065508073241</v>
+        <v>0.01588393339706119</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.52935746452509</v>
+        <v>5.460847999999999</v>
       </c>
       <c r="H3">
-        <v>4.52935746452509</v>
+        <v>16.382544</v>
       </c>
       <c r="I3">
-        <v>0.4102253820267637</v>
+        <v>0.4472616033121704</v>
       </c>
       <c r="J3">
-        <v>0.4102253820267637</v>
+        <v>0.4472616033121705</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N3">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O3">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P3">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q3">
-        <v>321.0589312383293</v>
+        <v>389.8012589006453</v>
       </c>
       <c r="R3">
-        <v>321.0589312383293</v>
+        <v>3508.211330105808</v>
       </c>
       <c r="S3">
-        <v>0.109022851944732</v>
+        <v>0.113368199931993</v>
       </c>
       <c r="T3">
-        <v>0.109022851944732</v>
+        <v>0.1133681999319931</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.52935746452509</v>
+        <v>5.460847999999999</v>
       </c>
       <c r="H4">
-        <v>4.52935746452509</v>
+        <v>16.382544</v>
       </c>
       <c r="I4">
-        <v>0.4102253820267637</v>
+        <v>0.4472616033121704</v>
       </c>
       <c r="J4">
-        <v>0.4102253820267637</v>
+        <v>0.4472616033121705</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N4">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O4">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P4">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q4">
-        <v>285.6367157496264</v>
+        <v>381.188302038368</v>
       </c>
       <c r="R4">
-        <v>285.6367157496264</v>
+        <v>3430.694718345312</v>
       </c>
       <c r="S4">
-        <v>0.09699443417144628</v>
+        <v>0.1108632428717667</v>
       </c>
       <c r="T4">
-        <v>0.09699443417144628</v>
+        <v>0.1108632428717667</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.52935746452509</v>
+        <v>5.460847999999999</v>
       </c>
       <c r="H5">
-        <v>4.52935746452509</v>
+        <v>16.382544</v>
       </c>
       <c r="I5">
-        <v>0.4102253820267637</v>
+        <v>0.4472616033121704</v>
       </c>
       <c r="J5">
-        <v>0.4102253820267637</v>
+        <v>0.4472616033121705</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N5">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O5">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P5">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q5">
-        <v>356.8507024347209</v>
+        <v>435.5781060207733</v>
       </c>
       <c r="R5">
-        <v>356.8507024347209</v>
+        <v>3920.20295418696</v>
       </c>
       <c r="S5">
-        <v>0.1211767607518578</v>
+        <v>0.1266817504608119</v>
       </c>
       <c r="T5">
-        <v>0.1211767607518578</v>
+        <v>0.126681750460812</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.52935746452509</v>
+        <v>5.460847999999999</v>
       </c>
       <c r="H6">
-        <v>4.52935746452509</v>
+        <v>16.382544</v>
       </c>
       <c r="I6">
-        <v>0.4102253820267637</v>
+        <v>0.4472616033121704</v>
       </c>
       <c r="J6">
-        <v>0.4102253820267637</v>
+        <v>0.4472616033121705</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N6">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O6">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P6">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q6">
-        <v>136.4981127883459</v>
+        <v>165.4760049716747</v>
       </c>
       <c r="R6">
-        <v>136.4981127883459</v>
+        <v>1489.284044745072</v>
       </c>
       <c r="S6">
-        <v>0.04635103432214554</v>
+        <v>0.04812636282521054</v>
       </c>
       <c r="T6">
-        <v>0.04635103432214554</v>
+        <v>0.04812636282521054</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.52935746452509</v>
+        <v>5.460847999999999</v>
       </c>
       <c r="H7">
-        <v>4.52935746452509</v>
+        <v>16.382544</v>
       </c>
       <c r="I7">
-        <v>0.4102253820267637</v>
+        <v>0.4472616033121704</v>
       </c>
       <c r="J7">
-        <v>0.4102253820267637</v>
+        <v>0.4472616033121705</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N7">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O7">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P7">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q7">
-        <v>86.88046565241611</v>
+        <v>111.1902410653653</v>
       </c>
       <c r="R7">
-        <v>86.88046565241611</v>
+        <v>1000.712169588288</v>
       </c>
       <c r="S7">
-        <v>0.02950223532850886</v>
+        <v>0.03233811382532703</v>
       </c>
       <c r="T7">
-        <v>0.02950223532850886</v>
+        <v>0.03233811382532703</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.10936474302346</v>
+        <v>5.169142</v>
       </c>
       <c r="H8">
-        <v>5.10936474302346</v>
+        <v>15.507426</v>
       </c>
       <c r="I8">
-        <v>0.4627568303091848</v>
+        <v>0.4233699122678894</v>
       </c>
       <c r="J8">
-        <v>0.4627568303091848</v>
+        <v>0.4233699122678894</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N8">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O8">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P8">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q8">
-        <v>23.84541823091035</v>
+        <v>51.69736623634734</v>
       </c>
       <c r="R8">
-        <v>23.84541823091035</v>
+        <v>465.276296127126</v>
       </c>
       <c r="S8">
-        <v>0.008097253333902554</v>
+        <v>0.01503545003412504</v>
       </c>
       <c r="T8">
-        <v>0.008097253333902554</v>
+        <v>0.01503545003412504</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.10936474302346</v>
+        <v>5.169142</v>
       </c>
       <c r="H9">
-        <v>5.10936474302346</v>
+        <v>15.507426</v>
       </c>
       <c r="I9">
-        <v>0.4627568303091848</v>
+        <v>0.4233699122678894</v>
       </c>
       <c r="J9">
-        <v>0.4627568303091848</v>
+        <v>0.4233699122678894</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N9">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O9">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P9">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q9">
-        <v>362.1721616255591</v>
+        <v>368.9789679251646</v>
       </c>
       <c r="R9">
-        <v>362.1721616255591</v>
+        <v>3320.810711326482</v>
       </c>
       <c r="S9">
-        <v>0.1229837830802976</v>
+        <v>0.1073123301972262</v>
       </c>
       <c r="T9">
-        <v>0.1229837830802976</v>
+        <v>0.1073123301972262</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.10936474302346</v>
+        <v>5.169142</v>
       </c>
       <c r="H10">
-        <v>5.10936474302346</v>
+        <v>15.507426</v>
       </c>
       <c r="I10">
-        <v>0.4627568303091848</v>
+        <v>0.4233699122678894</v>
       </c>
       <c r="J10">
-        <v>0.4627568303091848</v>
+        <v>0.4233699122678894</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N10">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O10">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P10">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q10">
-        <v>322.2139511386916</v>
+        <v>360.826095502972</v>
       </c>
       <c r="R10">
-        <v>322.2139511386916</v>
+        <v>3247.434859526748</v>
       </c>
       <c r="S10">
-        <v>0.1094150651845404</v>
+        <v>0.1049411822091825</v>
       </c>
       <c r="T10">
-        <v>0.1094150651845404</v>
+        <v>0.1049411822091825</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.10936474302346</v>
+        <v>5.169142</v>
       </c>
       <c r="H11">
-        <v>5.10936474302346</v>
+        <v>15.507426</v>
       </c>
       <c r="I11">
-        <v>0.4627568303091848</v>
+        <v>0.4233699122678894</v>
       </c>
       <c r="J11">
-        <v>0.4627568303091848</v>
+        <v>0.4233699122678894</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N11">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O11">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P11">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q11">
-        <v>402.5472513095834</v>
+        <v>412.3105206576767</v>
       </c>
       <c r="R11">
-        <v>402.5472513095834</v>
+        <v>3710.794685919091</v>
       </c>
       <c r="S11">
-        <v>0.1366940617755479</v>
+        <v>0.1199147013321928</v>
       </c>
       <c r="T11">
-        <v>0.1366940617755479</v>
+        <v>0.1199147013321928</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.10936474302346</v>
+        <v>5.169142</v>
       </c>
       <c r="H12">
-        <v>5.10936474302346</v>
+        <v>15.507426</v>
       </c>
       <c r="I12">
-        <v>0.4627568303091848</v>
+        <v>0.4233699122678894</v>
       </c>
       <c r="J12">
-        <v>0.4627568303091848</v>
+        <v>0.4233699122678894</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N12">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O12">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P12">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q12">
-        <v>153.9773909284812</v>
+        <v>156.6366555691153</v>
       </c>
       <c r="R12">
-        <v>153.9773909284812</v>
+        <v>1409.729900122038</v>
       </c>
       <c r="S12">
-        <v>0.05228652020139729</v>
+        <v>0.04555556268679049</v>
       </c>
       <c r="T12">
-        <v>0.05228652020139729</v>
+        <v>0.04555556268679049</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.10936474302346</v>
+        <v>5.169142</v>
       </c>
       <c r="H13">
-        <v>5.10936474302346</v>
+        <v>15.507426</v>
       </c>
       <c r="I13">
-        <v>0.4627568303091848</v>
+        <v>0.4233699122678894</v>
       </c>
       <c r="J13">
-        <v>0.4627568303091848</v>
+        <v>0.4233699122678894</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N13">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O13">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P13">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q13">
-        <v>98.00595151490424</v>
+        <v>105.2507129077947</v>
       </c>
       <c r="R13">
-        <v>98.00595151490424</v>
+        <v>947.2564161701521</v>
       </c>
       <c r="S13">
-        <v>0.03328014673349908</v>
+        <v>0.03061068580837236</v>
       </c>
       <c r="T13">
-        <v>0.03328014673349908</v>
+        <v>0.03061068580837237</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>1.40242166840398</v>
+        <v>0.07054933333333334</v>
       </c>
       <c r="H14">
-        <v>1.40242166840398</v>
+        <v>0.211648</v>
       </c>
       <c r="I14">
-        <v>0.1270177876640514</v>
+        <v>0.005778224909257943</v>
       </c>
       <c r="J14">
-        <v>0.1270177876640514</v>
+        <v>0.005778224909257943</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N14">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O14">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P14">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q14">
-        <v>6.545105487887934</v>
+        <v>0.7055744885831111</v>
       </c>
       <c r="R14">
-        <v>6.545105487887934</v>
+        <v>6.350170397248</v>
       </c>
       <c r="S14">
-        <v>0.002222539219876002</v>
+        <v>0.0002052063913651754</v>
       </c>
       <c r="T14">
-        <v>0.002222539219876002</v>
+        <v>0.0002052063913651754</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>1.40242166840398</v>
+        <v>0.07054933333333334</v>
       </c>
       <c r="H15">
-        <v>1.40242166840398</v>
+        <v>0.211648</v>
       </c>
       <c r="I15">
-        <v>0.1270177876640514</v>
+        <v>0.005778224909257943</v>
       </c>
       <c r="J15">
-        <v>0.1270177876640514</v>
+        <v>0.005778224909257943</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N15">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O15">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P15">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q15">
-        <v>99.40924414330081</v>
+        <v>5.035888006392889</v>
       </c>
       <c r="R15">
-        <v>99.40924414330081</v>
+        <v>45.322992057536</v>
       </c>
       <c r="S15">
-        <v>0.03375666661684487</v>
+        <v>0.001464617020360602</v>
       </c>
       <c r="T15">
-        <v>0.03375666661684487</v>
+        <v>0.001464617020360603</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>1.40242166840398</v>
+        <v>0.07054933333333334</v>
       </c>
       <c r="H16">
-        <v>1.40242166840398</v>
+        <v>0.211648</v>
       </c>
       <c r="I16">
-        <v>0.1270177876640514</v>
+        <v>0.005778224909257943</v>
       </c>
       <c r="J16">
-        <v>0.1270177876640514</v>
+        <v>0.005778224909257943</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N16">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O16">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P16">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q16">
-        <v>88.4414892391423</v>
+        <v>4.924616210389334</v>
       </c>
       <c r="R16">
-        <v>88.4414892391423</v>
+        <v>44.321545893504</v>
       </c>
       <c r="S16">
-        <v>0.03003231634111758</v>
+        <v>0.001432255187431432</v>
       </c>
       <c r="T16">
-        <v>0.03003231634111758</v>
+        <v>0.001432255187431432</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>1.40242166840398</v>
+        <v>0.07054933333333334</v>
       </c>
       <c r="H17">
-        <v>1.40242166840398</v>
+        <v>0.211648</v>
       </c>
       <c r="I17">
-        <v>0.1270177876640514</v>
+        <v>0.005778224909257943</v>
       </c>
       <c r="J17">
-        <v>0.1270177876640514</v>
+        <v>0.005778224909257943</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N17">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O17">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P17">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q17">
-        <v>110.4914243133396</v>
+        <v>5.627284442702223</v>
       </c>
       <c r="R17">
-        <v>110.4914243133396</v>
+        <v>50.64555998432</v>
       </c>
       <c r="S17">
-        <v>0.03751987259041144</v>
+        <v>0.001636616335138787</v>
       </c>
       <c r="T17">
-        <v>0.03751987259041144</v>
+        <v>0.001636616335138787</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,10 +1520,10 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
@@ -1532,49 +1532,49 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>1.40242166840398</v>
+        <v>0.07054933333333334</v>
       </c>
       <c r="H18">
-        <v>1.40242166840398</v>
+        <v>0.211648</v>
       </c>
       <c r="I18">
-        <v>0.1270177876640514</v>
+        <v>0.005778224909257943</v>
       </c>
       <c r="J18">
-        <v>0.1270177876640514</v>
+        <v>0.005778224909257943</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N18">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O18">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P18">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q18">
-        <v>42.26381171500188</v>
+        <v>2.137803841713778</v>
       </c>
       <c r="R18">
-        <v>42.26381171500188</v>
+        <v>19.240234575424</v>
       </c>
       <c r="S18">
-        <v>0.01435163715724284</v>
+        <v>0.0006217501042103206</v>
       </c>
       <c r="T18">
-        <v>0.01435163715724284</v>
+        <v>0.0006217501042103205</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,805 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.07054933333333334</v>
+      </c>
+      <c r="H19">
+        <v>0.211648</v>
+      </c>
+      <c r="I19">
+        <v>0.005778224909257943</v>
+      </c>
+      <c r="J19">
+        <v>0.005778224909257943</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>20.36135066666667</v>
+      </c>
+      <c r="N19">
+        <v>61.084052</v>
+      </c>
+      <c r="O19">
+        <v>0.07230245920027331</v>
+      </c>
+      <c r="P19">
+        <v>0.07230245920027331</v>
+      </c>
+      <c r="Q19">
+        <v>1.436479715299556</v>
+      </c>
+      <c r="R19">
+        <v>12.928317437696</v>
+      </c>
+      <c r="S19">
+        <v>0.0004177798707516254</v>
+      </c>
+      <c r="T19">
+        <v>0.0004177798707516253</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.090335</v>
+      </c>
+      <c r="H20">
+        <v>0.271005</v>
+      </c>
+      <c r="I20">
+        <v>0.007398736777732125</v>
+      </c>
+      <c r="J20">
+        <v>0.007398736777732125</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>10.00115033333333</v>
+      </c>
+      <c r="N20">
+        <v>30.003451</v>
+      </c>
+      <c r="O20">
+        <v>0.03551374247070085</v>
+      </c>
+      <c r="P20">
+        <v>0.03551374247070086</v>
+      </c>
+      <c r="Q20">
+        <v>0.9034539153616666</v>
+      </c>
+      <c r="R20">
+        <v>8.131085238255</v>
+      </c>
+      <c r="S20">
+        <v>0.0002627568325328817</v>
+      </c>
+      <c r="T20">
+        <v>0.0002627568325328818</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.090335</v>
+      </c>
+      <c r="H21">
+        <v>0.271005</v>
+      </c>
+      <c r="I21">
+        <v>0.007398736777732125</v>
+      </c>
+      <c r="J21">
+        <v>0.007398736777732125</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>71.38108566666666</v>
+      </c>
+      <c r="N21">
+        <v>214.143257</v>
+      </c>
+      <c r="O21">
+        <v>0.253471791659403</v>
+      </c>
+      <c r="P21">
+        <v>0.2534717916594031</v>
+      </c>
+      <c r="Q21">
+        <v>6.448210373698333</v>
+      </c>
+      <c r="R21">
+        <v>58.033893363285</v>
+      </c>
+      <c r="S21">
+        <v>0.00187537106706808</v>
+      </c>
+      <c r="T21">
+        <v>0.00187537106706808</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.090335</v>
+      </c>
+      <c r="H22">
+        <v>0.271005</v>
+      </c>
+      <c r="I22">
+        <v>0.007398736777732125</v>
+      </c>
+      <c r="J22">
+        <v>0.007398736777732125</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>69.803866</v>
+      </c>
+      <c r="N22">
+        <v>209.411598</v>
+      </c>
+      <c r="O22">
+        <v>0.2478711386150191</v>
+      </c>
+      <c r="P22">
+        <v>0.2478711386150191</v>
+      </c>
+      <c r="Q22">
+        <v>6.30573223511</v>
+      </c>
+      <c r="R22">
+        <v>56.75159011599</v>
+      </c>
+      <c r="S22">
+        <v>0.001833933309409279</v>
+      </c>
+      <c r="T22">
+        <v>0.001833933309409279</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.090335</v>
+      </c>
+      <c r="H23">
+        <v>0.271005</v>
+      </c>
+      <c r="I23">
+        <v>0.007398736777732125</v>
+      </c>
+      <c r="J23">
+        <v>0.007398736777732125</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>79.76382166666667</v>
+      </c>
+      <c r="N23">
+        <v>239.291465</v>
+      </c>
+      <c r="O23">
+        <v>0.2832386002345773</v>
+      </c>
+      <c r="P23">
+        <v>0.2832386002345773</v>
+      </c>
+      <c r="Q23">
+        <v>7.205464830258333</v>
+      </c>
+      <c r="R23">
+        <v>64.84918347232501</v>
+      </c>
+      <c r="S23">
+        <v>0.002095607848428934</v>
+      </c>
+      <c r="T23">
+        <v>0.002095607848428934</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.090335</v>
+      </c>
+      <c r="H24">
+        <v>0.271005</v>
+      </c>
+      <c r="I24">
+        <v>0.007398736777732125</v>
+      </c>
+      <c r="J24">
+        <v>0.007398736777732125</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>30.30225433333333</v>
+      </c>
+      <c r="N24">
+        <v>90.906763</v>
+      </c>
+      <c r="O24">
+        <v>0.1076022678200263</v>
+      </c>
+      <c r="P24">
+        <v>0.1076022678200263</v>
+      </c>
+      <c r="Q24">
+        <v>2.737354145201667</v>
+      </c>
+      <c r="R24">
+        <v>24.636187306815</v>
+      </c>
+      <c r="S24">
+        <v>0.0007961208562874108</v>
+      </c>
+      <c r="T24">
+        <v>0.0007961208562874108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.090335</v>
+      </c>
+      <c r="H25">
+        <v>0.271005</v>
+      </c>
+      <c r="I25">
+        <v>0.007398736777732125</v>
+      </c>
+      <c r="J25">
+        <v>0.007398736777732125</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>20.36135066666667</v>
+      </c>
+      <c r="N25">
+        <v>61.084052</v>
+      </c>
+      <c r="O25">
+        <v>0.07230245920027331</v>
+      </c>
+      <c r="P25">
+        <v>0.07230245920027331</v>
+      </c>
+      <c r="Q25">
+        <v>1.839342612473333</v>
+      </c>
+      <c r="R25">
+        <v>16.55408351226</v>
+      </c>
+      <c r="S25">
+        <v>0.0005349468640055386</v>
+      </c>
+      <c r="T25">
+        <v>0.0005349468640055386</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.418642333333333</v>
+      </c>
+      <c r="H26">
+        <v>4.255927</v>
+      </c>
+      <c r="I26">
+        <v>0.1161915227329501</v>
+      </c>
+      <c r="J26">
+        <v>0.1161915227329501</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>10.00115033333333</v>
+      </c>
+      <c r="N26">
+        <v>30.003451</v>
+      </c>
+      <c r="O26">
+        <v>0.03551374247070085</v>
+      </c>
+      <c r="P26">
+        <v>0.03551374247070086</v>
+      </c>
+      <c r="Q26">
+        <v>14.18805524489744</v>
+      </c>
+      <c r="R26">
+        <v>127.692497204077</v>
+      </c>
+      <c r="S26">
+        <v>0.004126395815616575</v>
+      </c>
+      <c r="T26">
+        <v>0.004126395815616576</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1.418642333333333</v>
+      </c>
+      <c r="H27">
+        <v>4.255927</v>
+      </c>
+      <c r="I27">
+        <v>0.1161915227329501</v>
+      </c>
+      <c r="J27">
+        <v>0.1161915227329501</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>71.38108566666666</v>
+      </c>
+      <c r="N27">
+        <v>214.143257</v>
+      </c>
+      <c r="O27">
+        <v>0.253471791659403</v>
+      </c>
+      <c r="P27">
+        <v>0.2534717916594031</v>
+      </c>
+      <c r="Q27">
+        <v>101.2642299260266</v>
+      </c>
+      <c r="R27">
+        <v>911.3780693342389</v>
+      </c>
+      <c r="S27">
+        <v>0.02945127344275512</v>
+      </c>
+      <c r="T27">
+        <v>0.02945127344275513</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1.40242166840398</v>
-      </c>
-      <c r="H19">
-        <v>1.40242166840398</v>
-      </c>
-      <c r="I19">
-        <v>0.1270177876640514</v>
-      </c>
-      <c r="J19">
-        <v>0.1270177876640514</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>19.1816314638186</v>
-      </c>
-      <c r="N19">
-        <v>19.1816314638186</v>
-      </c>
-      <c r="O19">
-        <v>0.07191713780056665</v>
-      </c>
-      <c r="P19">
-        <v>0.07191713780056665</v>
-      </c>
-      <c r="Q19">
-        <v>26.90073560019876</v>
-      </c>
-      <c r="R19">
-        <v>26.90073560019876</v>
-      </c>
-      <c r="S19">
-        <v>0.0091347557385587</v>
-      </c>
-      <c r="T19">
-        <v>0.0091347557385587</v>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1.418642333333333</v>
+      </c>
+      <c r="H28">
+        <v>4.255927</v>
+      </c>
+      <c r="I28">
+        <v>0.1161915227329501</v>
+      </c>
+      <c r="J28">
+        <v>0.1161915227329501</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>69.803866</v>
+      </c>
+      <c r="N28">
+        <v>209.411598</v>
+      </c>
+      <c r="O28">
+        <v>0.2478711386150191</v>
+      </c>
+      <c r="P28">
+        <v>0.2478711386150191</v>
+      </c>
+      <c r="Q28">
+        <v>99.02671933792733</v>
+      </c>
+      <c r="R28">
+        <v>891.2404740413459</v>
+      </c>
+      <c r="S28">
+        <v>0.02880052503722922</v>
+      </c>
+      <c r="T28">
+        <v>0.02880052503722923</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1.418642333333333</v>
+      </c>
+      <c r="H29">
+        <v>4.255927</v>
+      </c>
+      <c r="I29">
+        <v>0.1161915227329501</v>
+      </c>
+      <c r="J29">
+        <v>0.1161915227329501</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>79.76382166666667</v>
+      </c>
+      <c r="N29">
+        <v>239.291465</v>
+      </c>
+      <c r="O29">
+        <v>0.2832386002345773</v>
+      </c>
+      <c r="P29">
+        <v>0.2832386002345773</v>
+      </c>
+      <c r="Q29">
+        <v>113.1563340847839</v>
+      </c>
+      <c r="R29">
+        <v>1018.407006763055</v>
+      </c>
+      <c r="S29">
+        <v>0.03290992425800485</v>
+      </c>
+      <c r="T29">
+        <v>0.03290992425800486</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1.418642333333333</v>
+      </c>
+      <c r="H30">
+        <v>4.255927</v>
+      </c>
+      <c r="I30">
+        <v>0.1161915227329501</v>
+      </c>
+      <c r="J30">
+        <v>0.1161915227329501</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>30.30225433333333</v>
+      </c>
+      <c r="N30">
+        <v>90.906763</v>
+      </c>
+      <c r="O30">
+        <v>0.1076022678200263</v>
+      </c>
+      <c r="P30">
+        <v>0.1076022678200263</v>
+      </c>
+      <c r="Q30">
+        <v>42.98806079270011</v>
+      </c>
+      <c r="R30">
+        <v>386.892547134301</v>
+      </c>
+      <c r="S30">
+        <v>0.01250247134752758</v>
+      </c>
+      <c r="T30">
+        <v>0.01250247134752758</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.418642333333333</v>
+      </c>
+      <c r="H31">
+        <v>4.255927</v>
+      </c>
+      <c r="I31">
+        <v>0.1161915227329501</v>
+      </c>
+      <c r="J31">
+        <v>0.1161915227329501</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>20.36135066666667</v>
+      </c>
+      <c r="N31">
+        <v>61.084052</v>
+      </c>
+      <c r="O31">
+        <v>0.07230245920027331</v>
+      </c>
+      <c r="P31">
+        <v>0.07230245920027331</v>
+      </c>
+      <c r="Q31">
+        <v>28.88547401957822</v>
+      </c>
+      <c r="R31">
+        <v>259.969266176204</v>
+      </c>
+      <c r="S31">
+        <v>0.008400932831816756</v>
+      </c>
+      <c r="T31">
+        <v>0.008400932831816756</v>
       </c>
     </row>
   </sheetData>
